--- a/ProjectFiles/PlanGroup2.xlsx
+++ b/ProjectFiles/PlanGroup2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LudwigOelker\Desktop\Group2FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LudwigOelker\Desktop\Group2\ProjectFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEB43C5-099A-482F-9042-35C0BBE2ECB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2A401E-9778-4900-9576-278D11157F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Day 1</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Search in dummy DB</t>
+  </si>
+  <si>
+    <t>Integrate DB</t>
   </si>
 </sst>
 </file>
@@ -198,19 +201,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,7 +496,7 @@
   <dimension ref="B1:X15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,7 +506,7 @@
     <col min="5" max="5" width="2.77734375" customWidth="1"/>
     <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.77734375" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.77734375" customWidth="1"/>
     <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.77734375" customWidth="1"/>
@@ -523,34 +525,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="F1" s="9">
+      <c r="F1" s="7">
         <v>44949</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="7">
         <v>44950</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="7">
         <v>44951</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="7">
         <v>44952</v>
       </c>
-      <c r="N1" s="9">
+      <c r="N1" s="7">
         <v>44953</v>
       </c>
-      <c r="P1" s="9">
+      <c r="P1" s="7">
         <v>44956</v>
       </c>
-      <c r="R1" s="9">
+      <c r="R1" s="7">
         <v>44957</v>
       </c>
-      <c r="T1" s="9">
+      <c r="T1" s="7">
         <v>44958</v>
       </c>
-      <c r="V1" s="9">
+      <c r="V1" s="7">
         <v>44959</v>
       </c>
-      <c r="X1" s="9">
+      <c r="X1" s="7">
         <v>44960</v>
       </c>
     </row>
@@ -559,44 +561,44 @@
         <v>23</v>
       </c>
       <c r="C2" s="8"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="3" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="3" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="3" t="s">
+      <c r="O2" s="3"/>
+      <c r="P2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="3" t="s">
+      <c r="Q2" s="3"/>
+      <c r="R2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="4"/>
-      <c r="T2" s="3" t="s">
+      <c r="S2" s="3"/>
+      <c r="T2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="4"/>
-      <c r="V2" s="3" t="s">
+      <c r="U2" s="3"/>
+      <c r="V2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="4"/>
-      <c r="X2" s="3" t="s">
+      <c r="W2" s="3"/>
+      <c r="X2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -607,40 +609,31 @@
       <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
+      <c r="J3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2" t="s">
+      <c r="L3" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
+      <c r="N3" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2" t="s">
+      <c r="P3" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2" t="s">
+      <c r="R3" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2" t="s">
+      <c r="T3" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2" t="s">
+      <c r="V3" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2" t="s">
+      <c r="X3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -651,64 +644,43 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
+      <c r="G4" s="5"/>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
+      <c r="G5" s="5"/>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -716,7 +688,7 @@
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -731,7 +703,7 @@
     <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="5"/>
       <c r="F10" t="s">
         <v>19</v>
       </c>
@@ -739,7 +711,7 @@
     <row r="11" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="E11" s="6"/>
+      <c r="E11" s="5"/>
       <c r="F11" t="s">
         <v>20</v>
       </c>
@@ -761,13 +733,13 @@
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="E14" s="6"/>
+      <c r="E14" s="1"/>
       <c r="F14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="E15" s="6"/>
+      <c r="E15" s="5"/>
       <c r="F15" t="s">
         <v>25</v>
       </c>

--- a/ProjectFiles/PlanGroup2.xlsx
+++ b/ProjectFiles/PlanGroup2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LudwigOelker\Desktop\Group2\ProjectFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2A401E-9778-4900-9576-278D11157F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE586EC-3DB8-47A2-909E-4E2E3A66DF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Day 1</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Integrate DB</t>
+  </si>
+  <si>
+    <t>Search opt</t>
   </si>
 </sst>
 </file>
@@ -496,7 +499,7 @@
   <dimension ref="B1:X15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,12 +647,15 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="1"/>
       <c r="H4" t="s">
         <v>25</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.3">

--- a/ProjectFiles/PlanGroup2.xlsx
+++ b/ProjectFiles/PlanGroup2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LudwigOelker\Desktop\Group2\ProjectFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE586EC-3DB8-47A2-909E-4E2E3A66DF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D37DFE-DF3E-4CBC-81F4-55555BA55CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Day 1</t>
   </si>
@@ -120,6 +120,21 @@
   </si>
   <si>
     <t>Search opt</t>
+  </si>
+  <si>
+    <t>- Search into DB</t>
+  </si>
+  <si>
+    <t>Find API for text analyze</t>
+  </si>
+  <si>
+    <t>- Post result</t>
+  </si>
+  <si>
+    <t>- RestController</t>
+  </si>
+  <si>
+    <t>- Redo Post&amp;Get</t>
   </si>
 </sst>
 </file>
@@ -499,7 +514,7 @@
   <dimension ref="B1:X15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,7 +524,7 @@
     <col min="5" max="5" width="2.77734375" customWidth="1"/>
     <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.77734375" customWidth="1"/>
     <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.77734375" customWidth="1"/>
@@ -651,9 +666,6 @@
       <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
       <c r="L4" t="s">
         <v>27</v>
       </c>
@@ -665,7 +677,7 @@
       <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="1"/>
       <c r="H5" t="s">
         <v>19</v>
       </c>
@@ -677,7 +689,7 @@
       <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="1"/>
       <c r="H6" t="s">
         <v>20</v>
       </c>
@@ -689,6 +701,10 @@
       <c r="F7" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="G7" s="5"/>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>
@@ -697,6 +713,10 @@
       <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
@@ -705,6 +725,10 @@
       <c r="F9" t="s">
         <v>17</v>
       </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
@@ -713,6 +737,10 @@
       <c r="F10" t="s">
         <v>19</v>
       </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
@@ -721,6 +749,10 @@
       <c r="F11" t="s">
         <v>20</v>
       </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
@@ -728,6 +760,10 @@
       <c r="E12" s="1"/>
       <c r="F12" t="s">
         <v>21</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">

--- a/ProjectFiles/PlanGroup2.xlsx
+++ b/ProjectFiles/PlanGroup2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LudwigOelker\Desktop\Group2\ProjectFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Emotus\ProjectFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D37DFE-DF3E-4CBC-81F4-55555BA55CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBFD6BF-3947-4BD7-B6D9-F4CC24B7E7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>Day 1</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Create First Step</t>
   </si>
   <si>
-    <t>StandUp x3</t>
-  </si>
-  <si>
     <t>Find API</t>
   </si>
   <si>
@@ -135,6 +132,15 @@
   </si>
   <si>
     <t>- Redo Post&amp;Get</t>
+  </si>
+  <si>
+    <t>Cut lyrics</t>
+  </si>
+  <si>
+    <t>StandUp x2</t>
+  </si>
+  <si>
+    <t>songId, cut correctly</t>
   </si>
 </sst>
 </file>
@@ -172,7 +178,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +200,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -231,6 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,35 +527,35 @@
   <dimension ref="B1:X15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" customWidth="1"/>
-    <col min="5" max="5" width="2.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.77734375" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.77734375" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.77734375" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.77734375" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.77734375" customWidth="1"/>
-    <col min="16" max="16" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.77734375" customWidth="1"/>
-    <col min="18" max="18" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.77734375" customWidth="1"/>
-    <col min="20" max="20" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.77734375" customWidth="1"/>
-    <col min="22" max="22" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" customWidth="1"/>
+    <col min="4" max="4" width="3.6328125" customWidth="1"/>
+    <col min="5" max="5" width="2.81640625" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.81640625" customWidth="1"/>
+    <col min="8" max="8" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.81640625" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.81640625" customWidth="1"/>
+    <col min="12" max="12" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.81640625" customWidth="1"/>
+    <col min="14" max="14" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.81640625" customWidth="1"/>
+    <col min="16" max="16" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.81640625" customWidth="1"/>
+    <col min="18" max="18" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.81640625" customWidth="1"/>
+    <col min="20" max="20" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.81640625" customWidth="1"/>
+    <col min="22" max="22" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.35">
       <c r="F1" s="7">
         <v>44949</v>
       </c>
@@ -574,9 +587,9 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="8"/>
       <c r="E2" s="3"/>
@@ -620,7 +633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="E3" s="1"/>
@@ -628,34 +641,34 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="N3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="P3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="R3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="T3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="V3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="X3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="E4" s="1"/>
@@ -664,13 +677,18 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="5"/>
       <c r="L4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="E5" s="1"/>
@@ -679,10 +697,18 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="E6" s="1"/>
@@ -691,34 +717,46 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="E7" s="1"/>
       <c r="F7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="E8" s="1"/>
       <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="E9" s="1"/>
@@ -727,63 +765,63 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="E10" s="5"/>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="E11" s="5"/>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="E12" s="1"/>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="E13" s="1"/>
       <c r="F13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.35">
       <c r="E14" s="1"/>
       <c r="F14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.35">
       <c r="E15" s="5"/>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectFiles/PlanGroup2.xlsx
+++ b/ProjectFiles/PlanGroup2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Emotus\ProjectFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBFD6BF-3947-4BD7-B6D9-F4CC24B7E7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DCDE71-6653-433D-B240-8D686D126CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -240,10 +240,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,7 +528,7 @@
   <dimension ref="B1:X15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -588,10 +589,10 @@
       </c>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="9"/>
       <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
         <v>0</v>
@@ -634,8 +635,8 @@
       </c>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
       <c r="E3" s="1"/>
       <c r="F3" t="s">
         <v>10</v>
@@ -669,8 +670,8 @@
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
         <v>11</v>
@@ -689,8 +690,8 @@
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
       <c r="E5" s="1"/>
       <c r="F5" s="6" t="s">
         <v>12</v>
@@ -704,13 +705,13 @@
         <v>27</v>
       </c>
       <c r="K5" s="5"/>
-      <c r="L5" t="s">
+      <c r="L5" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
       <c r="E6" s="1"/>
       <c r="F6" s="4" t="s">
         <v>14</v>
@@ -729,8 +730,8 @@
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
       <c r="E7" s="1"/>
       <c r="F7" s="4" t="s">
         <v>15</v>
@@ -745,20 +746,20 @@
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
       <c r="E8" s="1"/>
       <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
       <c r="E9" s="1"/>
       <c r="F9" t="s">
         <v>17</v>
@@ -769,8 +770,8 @@
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
       <c r="E10" s="5"/>
       <c r="F10" t="s">
         <v>18</v>
@@ -781,8 +782,8 @@
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
       <c r="E11" s="5"/>
       <c r="F11" t="s">
         <v>19</v>
@@ -793,8 +794,8 @@
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
       <c r="E12" s="1"/>
       <c r="F12" t="s">
         <v>20</v>
@@ -805,8 +806,8 @@
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
       <c r="E13" s="1"/>
       <c r="F13" t="s">
         <v>21</v>

--- a/ProjectFiles/PlanGroup2.xlsx
+++ b/ProjectFiles/PlanGroup2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Emotus\ProjectFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\JavaProjects\Emotus\ProjectFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DCDE71-6653-433D-B240-8D686D126CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D2A060-E909-4246-AA7A-BB05383FFDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>Day 1</t>
   </si>
@@ -47,24 +47,15 @@
     <t>Day 3</t>
   </si>
   <si>
-    <t>Day 4</t>
-  </si>
-  <si>
     <t>Day 5</t>
   </si>
   <si>
     <t>Day 6</t>
   </si>
   <si>
-    <t>Day 7</t>
-  </si>
-  <si>
     <t>Day 8</t>
   </si>
   <si>
-    <t>Day 9</t>
-  </si>
-  <si>
     <t>Day 10</t>
   </si>
   <si>
@@ -104,9 +95,6 @@
     <t>Name for Project</t>
   </si>
   <si>
-    <t>Every day start with a stand up and bring up the previous day and discuss what happaened and included incomplete tasks. Stand up at the end if we are working seperately</t>
-  </si>
-  <si>
     <t>Create a dummy DB</t>
   </si>
   <si>
@@ -141,6 +129,21 @@
   </si>
   <si>
     <t>songId, cut correctly</t>
+  </si>
+  <si>
+    <t>Day 4 (Sprint 1 end)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day 9 </t>
+  </si>
+  <si>
+    <t>Day 7 (Sprint 2 end)</t>
+  </si>
+  <si>
+    <t>Every day start with a stand up and bring up the previous day and discuss what happaened and included incomplete tasks. Stand up at the end to sum what we have done.</t>
+  </si>
+  <si>
+    <t>Plan design</t>
   </si>
 </sst>
 </file>
@@ -241,10 +244,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,35 +531,35 @@
   <dimension ref="B1:X15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="4" max="4" width="3.6328125" customWidth="1"/>
-    <col min="5" max="5" width="2.81640625" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.81640625" customWidth="1"/>
-    <col min="8" max="8" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.81640625" customWidth="1"/>
-    <col min="10" max="10" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.81640625" customWidth="1"/>
-    <col min="12" max="12" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.81640625" customWidth="1"/>
-    <col min="14" max="14" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.81640625" customWidth="1"/>
-    <col min="16" max="16" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.81640625" customWidth="1"/>
-    <col min="18" max="18" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.81640625" customWidth="1"/>
-    <col min="20" max="20" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.81640625" customWidth="1"/>
-    <col min="22" max="22" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.81640625" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" customWidth="1"/>
+    <col min="5" max="5" width="2.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.77734375" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.77734375" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.77734375" customWidth="1"/>
+    <col min="12" max="12" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.77734375" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.77734375" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.77734375" customWidth="1"/>
+    <col min="18" max="18" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.77734375" customWidth="1"/>
+    <col min="20" max="20" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.77734375" customWidth="1"/>
+    <col min="22" max="22" width="17" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
       <c r="F1" s="7">
         <v>44949</v>
       </c>
@@ -588,11 +591,11 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="9"/>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="10"/>
       <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
         <v>0</v>
@@ -607,222 +610,226 @@
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="2" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="2" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U2" s="3"/>
       <c r="V2" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
       <c r="E3" s="1"/>
       <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V3" t="s">
-        <v>33</v>
-      </c>
-      <c r="X3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
       <c r="E5" s="1"/>
       <c r="F5" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
       <c r="E6" s="1"/>
       <c r="F6" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="K6" s="1"/>
       <c r="L6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
       <c r="E7" s="1"/>
       <c r="F7" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
       <c r="E8" s="1"/>
       <c r="F8" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
       <c r="E9" s="1"/>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
       <c r="E10" s="5"/>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
       <c r="E11" s="5"/>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
       <c r="E12" s="1"/>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
       <c r="E13" s="1"/>
       <c r="F13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E14" s="1"/>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E15" s="5"/>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectFiles/PlanGroup2.xlsx
+++ b/ProjectFiles/PlanGroup2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\JavaProjects\Emotus\ProjectFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D2A060-E909-4246-AA7A-BB05383FFDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EC382E-D751-4120-9055-A75794A49CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>Day 1</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Integrate DB</t>
   </si>
   <si>
-    <t>Search opt</t>
-  </si>
-  <si>
     <t>- Search into DB</t>
   </si>
   <si>
@@ -140,10 +137,16 @@
     <t>Day 7 (Sprint 2 end)</t>
   </si>
   <si>
-    <t>Every day start with a stand up and bring up the previous day and discuss what happaened and included incomplete tasks. Stand up at the end to sum what we have done.</t>
-  </si>
-  <si>
     <t>Plan design</t>
+  </si>
+  <si>
+    <t>Unit Test</t>
+  </si>
+  <si>
+    <t>Every day start with a stand up and bring up the previous day and discuss transpired and included incomplete tasks. Stand up at the end to sum what we have done.</t>
+  </si>
+  <si>
+    <t>Search optimization</t>
   </si>
 </sst>
 </file>
@@ -531,7 +534,7 @@
   <dimension ref="B1:X15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,7 +596,7 @@
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="10"/>
       <c r="E2" s="3"/>
@@ -610,7 +613,7 @@
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="2" t="s">
@@ -622,7 +625,7 @@
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="2" t="s">
@@ -630,7 +633,7 @@
       </c>
       <c r="U2" s="3"/>
       <c r="V2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="2" t="s">
@@ -645,28 +648,28 @@
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X3" t="s">
         <v>10</v>
@@ -685,15 +688,19 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="S4" s="5"/>
+      <c r="T4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.3">
@@ -709,11 +716,11 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.3">
@@ -729,11 +736,11 @@
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.3">
@@ -749,7 +756,7 @@
       </c>
       <c r="I7" s="1"/>
       <c r="J7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.3">
@@ -761,7 +768,7 @@
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.3">
@@ -773,7 +780,7 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.3">
@@ -785,7 +792,7 @@
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.3">
@@ -797,7 +804,7 @@
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
@@ -809,7 +816,7 @@
       </c>
       <c r="G12" s="5"/>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">

--- a/ProjectFiles/PlanGroup2.xlsx
+++ b/ProjectFiles/PlanGroup2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\JavaProjects\Emotus\ProjectFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EC382E-D751-4120-9055-A75794A49CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F2C6CB-2607-4ACD-9056-F7571828A93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="RetroSprint" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>Day 1</t>
   </si>
@@ -147,13 +148,61 @@
   </si>
   <si>
     <t>Search optimization</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Small success stories every day</t>
+  </si>
+  <si>
+    <t>Work more parrallel</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Good teamwork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New skills </t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Every voice is heard</t>
+  </si>
+  <si>
+    <t>Good dynamic</t>
+  </si>
+  <si>
+    <t>Good flow</t>
+  </si>
+  <si>
+    <t>Good balance of difficulty</t>
+  </si>
+  <si>
+    <t>Not everyone has had a chance to code</t>
+  </si>
+  <si>
+    <t>Plan slides</t>
+  </si>
+  <si>
+    <t>Presentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,8 +232,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +272,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -237,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -250,6 +313,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,7 +620,7 @@
     <col min="11" max="11" width="2.77734375" customWidth="1"/>
     <col min="12" max="12" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.77734375" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2.77734375" customWidth="1"/>
     <col min="16" max="16" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="2.77734375" customWidth="1"/>
@@ -698,6 +768,10 @@
       <c r="N4" t="s">
         <v>33</v>
       </c>
+      <c r="Q4" s="5"/>
+      <c r="R4" t="s">
+        <v>52</v>
+      </c>
       <c r="S4" s="5"/>
       <c r="T4" t="s">
         <v>34</v>
@@ -722,6 +796,10 @@
       <c r="L5" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="M5" s="5"/>
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B6" s="10"/>
@@ -741,6 +819,10 @@
       <c r="K6" s="1"/>
       <c r="L6" t="s">
         <v>29</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.3">
@@ -847,4 +929,128 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C256E984-3EE8-4394-8FCC-3442393285E3}">
+  <dimension ref="B2:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="2.88671875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.88671875" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="12"/>
+      <c r="C2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ProjectFiles/PlanGroup2.xlsx
+++ b/ProjectFiles/PlanGroup2.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\JavaProjects\Emotus\ProjectFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Emotus\ProjectFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F2C6CB-2607-4ACD-9056-F7571828A93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C52C87A-C2D1-43E6-B6D2-F562F0CE9A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="RetroSprint" sheetId="2" r:id="rId2"/>
+    <sheet name="Design" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
   <si>
     <t>Day 1</t>
   </si>
@@ -196,13 +197,82 @@
   </si>
   <si>
     <t>Presentation</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t>Readability</t>
+  </si>
+  <si>
+    <t>Colour (calm)</t>
+  </si>
+  <si>
+    <t>Adapt to result</t>
+  </si>
+  <si>
+    <t>5*3 result options</t>
+  </si>
+  <si>
+    <t>Dall-E</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Inspo</t>
+  </si>
+  <si>
+    <t>https://codepen.io/Calloumi/pen/DyKMbj</t>
+  </si>
+  <si>
+    <t>Resurs för menybar</t>
+  </si>
+  <si>
+    <t>Större markör</t>
+  </si>
+  <si>
+    <t>bakgrund</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>menybar</t>
+  </si>
+  <si>
+    <t>Färgval</t>
+  </si>
+  <si>
+    <t>kontrast</t>
+  </si>
+  <si>
+    <t>#D5EED5</t>
+  </si>
+  <si>
+    <t>font</t>
+  </si>
+  <si>
+    <t>C5DBC5</t>
+  </si>
+  <si>
+    <t>Helvetica</t>
+  </si>
+  <si>
+    <t>svart</t>
+  </si>
+  <si>
+    <t>vit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +309,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF3F3844"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -300,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -311,9 +388,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -321,6 +395,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,35 +682,35 @@
   <dimension ref="B1:X15"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" customWidth="1"/>
-    <col min="5" max="5" width="2.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.77734375" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.77734375" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.77734375" customWidth="1"/>
-    <col min="12" max="12" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.77734375" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.77734375" customWidth="1"/>
-    <col min="16" max="16" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.77734375" customWidth="1"/>
-    <col min="18" max="18" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.77734375" customWidth="1"/>
-    <col min="20" max="20" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" customWidth="1"/>
+    <col min="4" max="4" width="3.6328125" customWidth="1"/>
+    <col min="5" max="5" width="2.81640625" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.81640625" customWidth="1"/>
+    <col min="8" max="8" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.81640625" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.81640625" customWidth="1"/>
+    <col min="12" max="12" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.81640625" customWidth="1"/>
+    <col min="14" max="14" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.81640625" customWidth="1"/>
+    <col min="16" max="16" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.81640625" customWidth="1"/>
+    <col min="18" max="18" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.81640625" customWidth="1"/>
+    <col min="20" max="20" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.81640625" customWidth="1"/>
     <col min="22" max="22" width="17" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.77734375" customWidth="1"/>
+    <col min="23" max="23" width="2.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.35">
       <c r="F1" s="7">
         <v>44949</v>
       </c>
@@ -664,11 +742,11 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="13"/>
       <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
         <v>0</v>
@@ -710,9 +788,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
       <c r="E3" s="1"/>
       <c r="F3" t="s">
         <v>7</v>
@@ -745,9 +823,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
         <v>8</v>
@@ -777,9 +855,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
       <c r="E5" s="1"/>
       <c r="F5" s="6" t="s">
         <v>9</v>
@@ -801,9 +879,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
       <c r="E6" s="1"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
@@ -825,9 +903,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
       <c r="E7" s="1"/>
       <c r="F7" s="4" t="s">
         <v>12</v>
@@ -841,9 +919,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
       <c r="E8" s="1"/>
       <c r="F8" s="4" t="s">
         <v>13</v>
@@ -853,9 +931,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
       <c r="E9" s="1"/>
       <c r="F9" t="s">
         <v>14</v>
@@ -865,9 +943,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
       <c r="E10" s="5"/>
       <c r="F10" t="s">
         <v>15</v>
@@ -877,9 +955,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
       <c r="E11" s="5"/>
       <c r="F11" t="s">
         <v>16</v>
@@ -889,9 +967,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
       <c r="E12" s="1"/>
       <c r="F12" t="s">
         <v>17</v>
@@ -901,21 +979,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
       <c r="E13" s="1"/>
       <c r="F13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.35">
       <c r="E14" s="1"/>
       <c r="F14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.35">
       <c r="E15" s="5"/>
       <c r="F15" t="s">
         <v>20</v>
@@ -935,118 +1013,232 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C256E984-3EE8-4394-8FCC-3442393285E3}">
   <dimension ref="B2:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="2.88671875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="33.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.88671875" customWidth="1"/>
-    <col min="6" max="6" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="2.90625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.90625" customWidth="1"/>
+    <col min="6" max="6" width="2.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="12"/>
-      <c r="C2" s="11" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="11"/>
+      <c r="C2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="13" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="13" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="13" t="s">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00128B5-F611-48C7-9883-4F46CE353D3D}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectFiles/PlanGroup2.xlsx
+++ b/ProjectFiles/PlanGroup2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Emotus\ProjectFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\JavaProjects\Emotus\ProjectFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C52C87A-C2D1-43E6-B6D2-F562F0CE9A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A5A5F1-34B7-402A-A016-15E6610C2D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
   <si>
     <t>Day 1</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>vit</t>
+  </si>
+  <si>
+    <t>Create Unit Test for class</t>
   </si>
 </sst>
 </file>
@@ -395,10 +398,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,36 +684,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X15"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="4" max="4" width="3.6328125" customWidth="1"/>
-    <col min="5" max="5" width="2.81640625" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.81640625" customWidth="1"/>
-    <col min="8" max="8" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.81640625" customWidth="1"/>
-    <col min="10" max="10" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.81640625" customWidth="1"/>
-    <col min="12" max="12" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.81640625" customWidth="1"/>
-    <col min="14" max="14" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.81640625" customWidth="1"/>
-    <col min="16" max="16" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.81640625" customWidth="1"/>
-    <col min="18" max="18" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.81640625" customWidth="1"/>
-    <col min="20" max="20" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.81640625" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" customWidth="1"/>
+    <col min="5" max="5" width="2.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.77734375" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.77734375" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.77734375" customWidth="1"/>
+    <col min="12" max="12" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.77734375" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.77734375" customWidth="1"/>
+    <col min="16" max="16" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.77734375" customWidth="1"/>
+    <col min="18" max="18" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.77734375" customWidth="1"/>
+    <col min="20" max="20" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.77734375" customWidth="1"/>
     <col min="22" max="22" width="17" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.81640625" customWidth="1"/>
+    <col min="23" max="23" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
       <c r="F1" s="7">
         <v>44949</v>
       </c>
@@ -742,11 +745,11 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="14"/>
       <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
         <v>0</v>
@@ -788,9 +791,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
       <c r="E3" s="1"/>
       <c r="F3" t="s">
         <v>7</v>
@@ -823,9 +826,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
         <v>8</v>
@@ -842,22 +845,22 @@
       <c r="L4" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="5"/>
+      <c r="M4" s="1"/>
       <c r="N4" t="s">
         <v>33</v>
+      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" t="s">
+        <v>76</v>
       </c>
       <c r="Q4" s="5"/>
       <c r="R4" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="5"/>
-      <c r="T4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
       <c r="E5" s="1"/>
       <c r="F5" s="6" t="s">
         <v>9</v>
@@ -878,10 +881,14 @@
       <c r="N5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="O5" s="5"/>
+      <c r="P5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
       <c r="E6" s="1"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
@@ -902,10 +909,14 @@
       <c r="N6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="O6" s="5"/>
+      <c r="P6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="E7" s="1"/>
       <c r="F7" s="4" t="s">
         <v>12</v>
@@ -918,10 +929,14 @@
       <c r="J7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="M7" s="1"/>
+      <c r="N7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="E8" s="1"/>
       <c r="F8" s="4" t="s">
         <v>13</v>
@@ -931,9 +946,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
       <c r="E9" s="1"/>
       <c r="F9" t="s">
         <v>14</v>
@@ -943,9 +958,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
       <c r="E10" s="5"/>
       <c r="F10" t="s">
         <v>15</v>
@@ -955,9 +970,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
       <c r="E11" s="5"/>
       <c r="F11" t="s">
         <v>16</v>
@@ -967,9 +982,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
       <c r="E12" s="1"/>
       <c r="F12" t="s">
         <v>17</v>
@@ -979,21 +994,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
       <c r="E13" s="1"/>
       <c r="F13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E14" s="1"/>
       <c r="F14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E15" s="5"/>
       <c r="F15" t="s">
         <v>20</v>
@@ -1017,15 +1032,15 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="2.90625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="33.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.90625" customWidth="1"/>
-    <col min="6" max="6" width="2.90625" customWidth="1"/>
+    <col min="2" max="2" width="2.88671875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.88671875" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="11"/>
       <c r="C2" s="10" t="s">
         <v>37</v>
@@ -1039,7 +1054,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>40</v>
       </c>
@@ -1047,7 +1062,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>41</v>
       </c>
@@ -1055,7 +1070,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>40</v>
       </c>
@@ -1063,7 +1078,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>41</v>
       </c>
@@ -1071,7 +1086,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>40</v>
       </c>
@@ -1079,7 +1094,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>41</v>
       </c>
@@ -1087,7 +1102,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>40</v>
       </c>
@@ -1095,7 +1110,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>40</v>
       </c>
@@ -1103,7 +1118,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>40</v>
       </c>
@@ -1111,7 +1126,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>40</v>
       </c>
@@ -1119,7 +1134,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>41</v>
       </c>
@@ -1137,16 +1152,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00128B5-F611-48C7-9883-4F46CE353D3D}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -1154,18 +1169,18 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>54</v>
       </c>
       <c r="D2" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -1176,7 +1191,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1187,7 +1202,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>67</v>
       </c>
@@ -1195,7 +1210,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>71</v>
       </c>
@@ -1203,32 +1218,32 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -1236,7 +1251,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>64</v>
       </c>

--- a/ProjectFiles/PlanGroup2.xlsx
+++ b/ProjectFiles/PlanGroup2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\JavaProjects\Emotus\ProjectFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A5A5F1-34B7-402A-A016-15E6610C2D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520AC083-2A70-441E-B4D2-2A5BDE2530F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
   <si>
     <t>Day 1</t>
   </si>
@@ -269,6 +269,18 @@
   </si>
   <si>
     <t>Create Unit Test for class</t>
+  </si>
+  <si>
+    <t>Choose a colour scheme</t>
+  </si>
+  <si>
+    <t>Update old code</t>
+  </si>
+  <si>
+    <t>Picture rep result</t>
+  </si>
+  <si>
+    <t>Loading icon</t>
   </si>
 </sst>
 </file>
@@ -380,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -402,6 +414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,7 +720,7 @@
     <col min="17" max="17" width="2.77734375" customWidth="1"/>
     <col min="18" max="18" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="2.77734375" customWidth="1"/>
-    <col min="20" max="20" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="2.77734375" customWidth="1"/>
     <col min="22" max="22" width="17" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="2.77734375" customWidth="1"/>
@@ -857,6 +870,10 @@
       <c r="R4" t="s">
         <v>52</v>
       </c>
+      <c r="S4" s="5"/>
+      <c r="T4" s="15" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B5" s="14"/>
@@ -910,7 +927,7 @@
         <v>51</v>
       </c>
       <c r="O6" s="5"/>
-      <c r="P6" t="s">
+      <c r="P6" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -933,6 +950,10 @@
       <c r="N7" t="s">
         <v>34</v>
       </c>
+      <c r="O7" s="1"/>
+      <c r="P7" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B8" s="14"/>
@@ -945,6 +966,10 @@
       <c r="H8" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="9" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B9" s="14"/>
@@ -957,6 +982,10 @@
       <c r="H9" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="O9" s="5"/>
+      <c r="P9" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B10" s="14"/>
@@ -968,6 +997,10 @@
       <c r="G10" s="5"/>
       <c r="H10" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="O10" s="5"/>
+      <c r="P10" s="15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.3">

--- a/ProjectFiles/PlanGroup2.xlsx
+++ b/ProjectFiles/PlanGroup2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\JavaProjects\Emotus\ProjectFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520AC083-2A70-441E-B4D2-2A5BDE2530F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45C0953-3E07-4773-B36D-3DBCAEA70E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
   <si>
     <t>Day 1</t>
   </si>
@@ -281,6 +281,18 @@
   </si>
   <si>
     <t>Loading icon</t>
+  </si>
+  <si>
+    <t>Picture rep</t>
+  </si>
+  <si>
+    <t>Make ppt</t>
+  </si>
+  <si>
+    <t>Logo?</t>
+  </si>
+  <si>
+    <t>Big merge</t>
   </si>
 </sst>
 </file>
@@ -392,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -414,7 +426,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,7 +709,7 @@
   <dimension ref="B1:X15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -718,7 +729,7 @@
     <col min="15" max="15" width="2.77734375" customWidth="1"/>
     <col min="16" max="16" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="2.77734375" customWidth="1"/>
-    <col min="18" max="18" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="2.77734375" customWidth="1"/>
     <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="2.77734375" customWidth="1"/>
@@ -871,7 +882,7 @@
         <v>52</v>
       </c>
       <c r="S4" s="5"/>
-      <c r="T4" s="15" t="s">
+      <c r="T4" t="s">
         <v>79</v>
       </c>
     </row>
@@ -898,9 +909,13 @@
       <c r="N5" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="5"/>
+      <c r="O5" s="1"/>
       <c r="P5" t="s">
         <v>36</v>
+      </c>
+      <c r="Q5" s="5"/>
+      <c r="R5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.3">
@@ -930,6 +945,10 @@
       <c r="P6" s="9" t="s">
         <v>51</v>
       </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B7" s="14"/>
@@ -954,6 +973,10 @@
       <c r="P7" t="s">
         <v>77</v>
       </c>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="9" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B8" s="14"/>
@@ -970,6 +993,10 @@
       <c r="P8" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="9" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B9" s="14"/>
@@ -982,9 +1009,13 @@
       <c r="H9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="5"/>
+      <c r="O9" s="1"/>
       <c r="P9" t="s">
         <v>78</v>
+      </c>
+      <c r="Q9" s="5"/>
+      <c r="R9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.3">
@@ -999,8 +1030,12 @@
         <v>22</v>
       </c>
       <c r="O10" s="5"/>
-      <c r="P10" s="15" t="s">
+      <c r="P10" t="s">
         <v>80</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="R10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.3">
@@ -1013,6 +1048,10 @@
       <c r="G11" s="5"/>
       <c r="H11" s="4" t="s">
         <v>24</v>
+      </c>
+      <c r="Q11" s="5"/>
+      <c r="R11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">

--- a/ProjectFiles/PlanGroup2.xlsx
+++ b/ProjectFiles/PlanGroup2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\JavaProjects\Emotus\ProjectFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Emotus\ProjectFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45C0953-3E07-4773-B36D-3DBCAEA70E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFBABB4-CA0C-40CB-BF89-1E8EEE1826C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="89">
   <si>
     <t>Day 1</t>
   </si>
@@ -293,6 +293,18 @@
   </si>
   <si>
     <t>Big merge</t>
+  </si>
+  <si>
+    <t>Loading icon 2.0</t>
+  </si>
+  <si>
+    <t>Update ppt</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>deverse items</t>
   </si>
 </sst>
 </file>
@@ -709,7 +721,7 @@
   <dimension ref="B1:X15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -877,13 +889,17 @@
       <c r="P4" t="s">
         <v>76</v>
       </c>
-      <c r="Q4" s="5"/>
+      <c r="Q4" s="1"/>
       <c r="R4" t="s">
         <v>52</v>
       </c>
       <c r="S4" s="5"/>
       <c r="T4" t="s">
         <v>79</v>
+      </c>
+      <c r="U4" s="5"/>
+      <c r="V4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.3">
@@ -913,9 +929,13 @@
       <c r="P5" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="5"/>
+      <c r="Q5" s="1"/>
       <c r="R5" t="s">
         <v>76</v>
+      </c>
+      <c r="S5" s="5"/>
+      <c r="T5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.3">
@@ -945,9 +965,13 @@
       <c r="P6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="5"/>
+      <c r="Q6" s="1"/>
       <c r="R6" t="s">
         <v>80</v>
+      </c>
+      <c r="S6" s="5"/>
+      <c r="T6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.3">
@@ -973,9 +997,13 @@
       <c r="P7" t="s">
         <v>77</v>
       </c>
-      <c r="Q7" s="5"/>
+      <c r="Q7" s="1"/>
       <c r="R7" s="9" t="s">
         <v>82</v>
+      </c>
+      <c r="S7" s="5"/>
+      <c r="T7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.3">
@@ -997,6 +1025,10 @@
       <c r="R8" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="S8" s="5"/>
+      <c r="T8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B9" s="14"/>
@@ -1049,7 +1081,7 @@
       <c r="H11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="5"/>
+      <c r="Q11" s="1"/>
       <c r="R11" t="s">
         <v>84</v>
       </c>

--- a/ProjectFiles/PlanGroup2.xlsx
+++ b/ProjectFiles/PlanGroup2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Emotus\ProjectFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Module14\Emotus\ProjectFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFBABB4-CA0C-40CB-BF89-1E8EEE1826C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF05820-FC7C-4A6F-A23C-7D03B146D792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="103">
   <si>
     <t>Day 1</t>
   </si>
@@ -305,6 +305,48 @@
   </si>
   <si>
     <t>deverse items</t>
+  </si>
+  <si>
+    <t>replace dummy texts</t>
+  </si>
+  <si>
+    <t>formatera sökresultatet</t>
+  </si>
+  <si>
+    <t>search-knapp, centrerad text</t>
+  </si>
+  <si>
+    <t>navbar kloss mot toppen</t>
+  </si>
+  <si>
+    <t>ändra placering på text I sökresultat</t>
+  </si>
+  <si>
+    <t>analysknapp</t>
+  </si>
+  <si>
+    <t>separaera artist och låt</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>k+l</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>l (a)</t>
+  </si>
+  <si>
+    <t>synka bakgrundsfärg</t>
   </si>
 </sst>
 </file>
@@ -718,38 +760,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:X15"/>
+  <dimension ref="B1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" customWidth="1"/>
-    <col min="5" max="5" width="2.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.77734375" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.77734375" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.77734375" customWidth="1"/>
-    <col min="12" max="12" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.77734375" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.77734375" customWidth="1"/>
-    <col min="16" max="16" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.77734375" customWidth="1"/>
-    <col min="18" max="18" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" customWidth="1"/>
+    <col min="4" max="4" width="3.6328125" customWidth="1"/>
+    <col min="5" max="5" width="2.81640625" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.81640625" customWidth="1"/>
+    <col min="8" max="8" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.81640625" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.81640625" customWidth="1"/>
+    <col min="12" max="12" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.81640625" customWidth="1"/>
+    <col min="14" max="14" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.81640625" customWidth="1"/>
+    <col min="16" max="16" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.81640625" customWidth="1"/>
+    <col min="18" max="18" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.81640625" customWidth="1"/>
     <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.77734375" customWidth="1"/>
+    <col min="21" max="21" width="2.81640625" customWidth="1"/>
     <col min="22" max="22" width="17" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.77734375" customWidth="1"/>
+    <col min="23" max="23" width="2.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.35">
       <c r="F1" s="7">
         <v>44949</v>
       </c>
@@ -781,7 +823,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
         <v>35</v>
       </c>
@@ -827,7 +869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="E3" s="1"/>
@@ -862,7 +904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="E4" s="1"/>
@@ -893,7 +935,9 @@
       <c r="R4" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="5"/>
+      <c r="S4" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="T4" t="s">
         <v>79</v>
       </c>
@@ -902,7 +946,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="E5" s="1"/>
@@ -933,12 +977,14 @@
       <c r="R5" t="s">
         <v>76</v>
       </c>
-      <c r="S5" s="5"/>
+      <c r="S5" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="T5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="E6" s="1"/>
@@ -974,7 +1020,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="E7" s="1"/>
@@ -1001,12 +1047,14 @@
       <c r="R7" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="S7" s="5"/>
+      <c r="S7" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="T7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="E8" s="1"/>
@@ -1025,12 +1073,14 @@
       <c r="R8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="S8" s="5"/>
+      <c r="S8" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="T8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="E9" s="1"/>
@@ -1049,8 +1099,14 @@
       <c r="R9" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="S9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="T9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="E10" s="5"/>
@@ -1069,8 +1125,12 @@
       <c r="R10" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="S10" s="5"/>
+      <c r="T10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="E11" s="5"/>
@@ -1085,8 +1145,14 @@
       <c r="R11" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="S11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="T11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="E12" s="1"/>
@@ -1097,25 +1163,57 @@
       <c r="H12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="S12" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="T12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="E13" s="1"/>
       <c r="F13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="S13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="T13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.35">
       <c r="E14" s="1"/>
       <c r="F14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="S14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="T14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.35">
       <c r="E15" s="5"/>
       <c r="F15" t="s">
         <v>20</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="T15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="S16" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="T16" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1136,15 +1234,15 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="2.88671875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="33.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.88671875" customWidth="1"/>
-    <col min="6" max="6" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="2.90625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.90625" customWidth="1"/>
+    <col min="6" max="6" width="2.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" s="11"/>
       <c r="C2" s="10" t="s">
         <v>37</v>
@@ -1158,7 +1256,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" s="12" t="s">
         <v>40</v>
       </c>
@@ -1166,7 +1264,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="12" t="s">
         <v>41</v>
       </c>
@@ -1174,7 +1272,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
         <v>40</v>
       </c>
@@ -1182,7 +1280,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="12" t="s">
         <v>41</v>
       </c>
@@ -1190,7 +1288,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="12" t="s">
         <v>40</v>
       </c>
@@ -1198,7 +1296,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="12" t="s">
         <v>41</v>
       </c>
@@ -1206,7 +1304,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="12" t="s">
         <v>40</v>
       </c>
@@ -1214,7 +1312,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="12" t="s">
         <v>40</v>
       </c>
@@ -1222,7 +1320,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" s="12" t="s">
         <v>40</v>
       </c>
@@ -1230,7 +1328,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" s="12" t="s">
         <v>40</v>
       </c>
@@ -1238,7 +1336,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" s="12" t="s">
         <v>41</v>
       </c>
@@ -1260,12 +1358,12 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -1273,7 +1371,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -1284,7 +1382,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -1295,7 +1393,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1306,7 +1404,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>67</v>
       </c>
@@ -1314,7 +1412,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>71</v>
       </c>
@@ -1322,32 +1420,32 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -1355,7 +1453,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>64</v>
       </c>

--- a/ProjectFiles/PlanGroup2.xlsx
+++ b/ProjectFiles/PlanGroup2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Module14\Emotus\ProjectFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\JavaProjects\Emotus\ProjectFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF05820-FC7C-4A6F-A23C-7D03B146D792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463CC7AA-8BB9-4FC8-9230-F4A574DE7D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -763,35 +763,35 @@
   <dimension ref="B1:X16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="4" max="4" width="3.6328125" customWidth="1"/>
-    <col min="5" max="5" width="2.81640625" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.81640625" customWidth="1"/>
-    <col min="8" max="8" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.81640625" customWidth="1"/>
-    <col min="10" max="10" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.81640625" customWidth="1"/>
-    <col min="12" max="12" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.81640625" customWidth="1"/>
-    <col min="14" max="14" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.81640625" customWidth="1"/>
-    <col min="16" max="16" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.81640625" customWidth="1"/>
-    <col min="18" max="18" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.81640625" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" customWidth="1"/>
+    <col min="5" max="5" width="2.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.77734375" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.77734375" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.77734375" customWidth="1"/>
+    <col min="12" max="12" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.77734375" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.77734375" customWidth="1"/>
+    <col min="16" max="16" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.77734375" customWidth="1"/>
+    <col min="18" max="18" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.77734375" customWidth="1"/>
     <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.81640625" customWidth="1"/>
+    <col min="21" max="21" width="2.77734375" customWidth="1"/>
     <col min="22" max="22" width="17" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.81640625" customWidth="1"/>
+    <col min="23" max="23" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
       <c r="F1" s="7">
         <v>44949</v>
       </c>
@@ -823,7 +823,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B2" s="14" t="s">
         <v>35</v>
       </c>
@@ -869,7 +869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="E3" s="1"/>
@@ -904,7 +904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="E4" s="1"/>
@@ -935,7 +935,7 @@
       <c r="R4" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="1" t="s">
         <v>99</v>
       </c>
       <c r="T4" t="s">
@@ -946,7 +946,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="E5" s="1"/>
@@ -984,7 +984,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="E6" s="1"/>
@@ -1020,7 +1020,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="E7" s="1"/>
@@ -1054,7 +1054,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="E8" s="1"/>
@@ -1080,7 +1080,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="E9" s="1"/>
@@ -1106,7 +1106,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="E10" s="5"/>
@@ -1130,7 +1130,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="E11" s="5"/>
@@ -1152,7 +1152,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="E12" s="1"/>
@@ -1170,7 +1170,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="E13" s="1"/>
@@ -1184,7 +1184,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E14" s="1"/>
       <c r="F14" t="s">
         <v>19</v>
@@ -1196,7 +1196,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E15" s="5"/>
       <c r="F15" t="s">
         <v>20</v>
@@ -1208,7 +1208,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
       <c r="S16" s="5" t="s">
         <v>96</v>
       </c>
@@ -1234,15 +1234,15 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="2.90625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="33.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.90625" customWidth="1"/>
-    <col min="6" max="6" width="2.90625" customWidth="1"/>
+    <col min="2" max="2" width="2.88671875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.88671875" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="11"/>
       <c r="C2" s="10" t="s">
         <v>37</v>
@@ -1256,7 +1256,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>40</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>41</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>40</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>41</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>40</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>41</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>40</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>40</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>40</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>40</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>41</v>
       </c>
@@ -1358,12 +1358,12 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>67</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>71</v>
       </c>
@@ -1420,32 +1420,32 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>64</v>
       </c>

--- a/ProjectFiles/PlanGroup2.xlsx
+++ b/ProjectFiles/PlanGroup2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\JavaProjects\Emotus\ProjectFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463CC7AA-8BB9-4FC8-9230-F4A574DE7D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0EF396-A159-4AC3-AE3A-B4E09455A31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="105">
   <si>
     <t>Day 1</t>
   </si>
@@ -304,9 +304,6 @@
     <t>Logo</t>
   </si>
   <si>
-    <t>deverse items</t>
-  </si>
-  <si>
     <t>replace dummy texts</t>
   </si>
   <si>
@@ -347,6 +344,15 @@
   </si>
   <si>
     <t>synka bakgrundsfärg</t>
+  </si>
+  <si>
+    <t>Diff search result</t>
+  </si>
+  <si>
+    <t>Navbar ska inte täcka content på någon sida</t>
+  </si>
+  <si>
+    <t>Create unit test for class</t>
   </si>
 </sst>
 </file>
@@ -760,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:X16"/>
+  <dimension ref="B1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -785,7 +791,7 @@
     <col min="17" max="17" width="2.77734375" customWidth="1"/>
     <col min="18" max="18" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="2.77734375" customWidth="1"/>
-    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="37.44140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="2.77734375" customWidth="1"/>
     <col min="22" max="22" width="17" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="2.77734375" customWidth="1"/>
@@ -936,7 +942,7 @@
         <v>52</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T4" t="s">
         <v>79</v>
@@ -978,10 +984,14 @@
         <v>76</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T5" t="s">
         <v>85</v>
+      </c>
+      <c r="U5" s="5"/>
+      <c r="V5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.3">
@@ -1047,8 +1057,8 @@
       <c r="R7" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="S7" s="5" t="s">
-        <v>100</v>
+      <c r="S7" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="T7" t="s">
         <v>87</v>
@@ -1073,11 +1083,11 @@
       <c r="R8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="S8" s="5" t="s">
-        <v>98</v>
+      <c r="S8" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="T8" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.3">
@@ -1099,11 +1109,11 @@
       <c r="R9" t="s">
         <v>81</v>
       </c>
-      <c r="S9" s="5" t="s">
-        <v>101</v>
+      <c r="S9" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="T9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.3">
@@ -1125,9 +1135,9 @@
       <c r="R10" t="s">
         <v>83</v>
       </c>
-      <c r="S10" s="5"/>
+      <c r="S10" s="1"/>
       <c r="T10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.3">
@@ -1146,10 +1156,10 @@
         <v>84</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
@@ -1163,11 +1173,11 @@
       <c r="H12" t="s">
         <v>23</v>
       </c>
-      <c r="S12" s="5" t="s">
-        <v>97</v>
+      <c r="S12" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="T12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
@@ -1177,11 +1187,11 @@
       <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="S13" s="5" t="s">
-        <v>97</v>
+      <c r="S13" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="T13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.3">
@@ -1189,11 +1199,11 @@
       <c r="F14" t="s">
         <v>19</v>
       </c>
-      <c r="S14" s="5" t="s">
-        <v>96</v>
+      <c r="S14" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="T14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.3">
@@ -1202,18 +1212,24 @@
         <v>20</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="S16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="T16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="S16" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="T16" t="s">
-        <v>95</v>
+    <row r="17" spans="19:20" x14ac:dyDescent="0.3">
+      <c r="S17" s="5"/>
+      <c r="T17" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectFiles/PlanGroup2.xlsx
+++ b/ProjectFiles/PlanGroup2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\JavaProjects\Emotus\ProjectFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Module14\Emotus\ProjectFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0EF396-A159-4AC3-AE3A-B4E09455A31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD7A82F-D796-4DB2-A921-255B2BBD5C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="109">
   <si>
     <t>Day 1</t>
   </si>
@@ -353,6 +353,18 @@
   </si>
   <si>
     <t>Create unit test for class</t>
+  </si>
+  <si>
+    <t>add logo to navbar</t>
+  </si>
+  <si>
+    <t>loading icon 2.0</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>css-pyssel</t>
   </si>
 </sst>
 </file>
@@ -772,32 +784,32 @@
       <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" customWidth="1"/>
-    <col min="5" max="5" width="2.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.77734375" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.77734375" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.77734375" customWidth="1"/>
-    <col min="12" max="12" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.77734375" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.77734375" customWidth="1"/>
-    <col min="16" max="16" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.77734375" customWidth="1"/>
-    <col min="18" max="18" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.77734375" customWidth="1"/>
-    <col min="20" max="20" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" customWidth="1"/>
+    <col min="4" max="4" width="3.6328125" customWidth="1"/>
+    <col min="5" max="5" width="2.81640625" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.81640625" customWidth="1"/>
+    <col min="8" max="8" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.81640625" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.81640625" customWidth="1"/>
+    <col min="12" max="12" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.81640625" customWidth="1"/>
+    <col min="14" max="14" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.81640625" customWidth="1"/>
+    <col min="16" max="16" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.81640625" customWidth="1"/>
+    <col min="18" max="18" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.81640625" customWidth="1"/>
+    <col min="20" max="20" width="37.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.81640625" customWidth="1"/>
     <col min="22" max="22" width="17" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.77734375" customWidth="1"/>
+    <col min="23" max="23" width="2.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.35">
       <c r="F1" s="7">
         <v>44949</v>
       </c>
@@ -829,7 +841,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
         <v>35</v>
       </c>
@@ -875,7 +887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="E3" s="1"/>
@@ -910,7 +922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="E4" s="1"/>
@@ -952,7 +964,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="E5" s="1"/>
@@ -989,12 +1001,14 @@
       <c r="T5" t="s">
         <v>85</v>
       </c>
-      <c r="U5" s="5"/>
+      <c r="U5" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="V5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="E6" s="1"/>
@@ -1029,8 +1043,14 @@
       <c r="T6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="U6" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="V6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="E7" s="1"/>
@@ -1063,8 +1083,14 @@
       <c r="T7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="U7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="V7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="E8" s="1"/>
@@ -1089,8 +1115,14 @@
       <c r="T8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="U8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="V8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="E9" s="1"/>
@@ -1115,8 +1147,14 @@
       <c r="T9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="U9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="V9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="E10" s="5"/>
@@ -1140,7 +1178,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="E11" s="5"/>
@@ -1162,7 +1200,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="E12" s="1"/>
@@ -1180,7 +1218,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="E13" s="1"/>
@@ -1194,7 +1232,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.35">
       <c r="E14" s="1"/>
       <c r="F14" t="s">
         <v>19</v>
@@ -1206,7 +1244,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.35">
       <c r="E15" s="5"/>
       <c r="F15" t="s">
         <v>20</v>
@@ -1218,7 +1256,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.35">
       <c r="S16" s="1" t="s">
         <v>95</v>
       </c>
@@ -1226,7 +1264,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="19:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S17" s="5"/>
       <c r="T17" t="s">
         <v>103</v>
@@ -1250,15 +1288,15 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="2.88671875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="33.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.88671875" customWidth="1"/>
-    <col min="6" max="6" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="2.90625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.90625" customWidth="1"/>
+    <col min="6" max="6" width="2.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" s="11"/>
       <c r="C2" s="10" t="s">
         <v>37</v>
@@ -1272,7 +1310,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" s="12" t="s">
         <v>40</v>
       </c>
@@ -1280,7 +1318,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="12" t="s">
         <v>41</v>
       </c>
@@ -1288,7 +1326,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
         <v>40</v>
       </c>
@@ -1296,7 +1334,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="12" t="s">
         <v>41</v>
       </c>
@@ -1304,7 +1342,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="12" t="s">
         <v>40</v>
       </c>
@@ -1312,7 +1350,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="12" t="s">
         <v>41</v>
       </c>
@@ -1320,7 +1358,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="12" t="s">
         <v>40</v>
       </c>
@@ -1328,7 +1366,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="12" t="s">
         <v>40</v>
       </c>
@@ -1336,7 +1374,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" s="12" t="s">
         <v>40</v>
       </c>
@@ -1344,7 +1382,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" s="12" t="s">
         <v>40</v>
       </c>
@@ -1352,7 +1390,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" s="12" t="s">
         <v>41</v>
       </c>
@@ -1374,12 +1412,12 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -1387,7 +1425,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -1398,7 +1436,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -1409,7 +1447,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1420,7 +1458,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>67</v>
       </c>
@@ -1428,7 +1466,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>71</v>
       </c>
@@ -1436,32 +1474,32 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -1469,7 +1507,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>64</v>
       </c>

--- a/ProjectFiles/PlanGroup2.xlsx
+++ b/ProjectFiles/PlanGroup2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Module14\Emotus\ProjectFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD7A82F-D796-4DB2-A921-255B2BBD5C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C07C11-4387-40A8-A729-329E90412076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="110">
   <si>
     <t>Day 1</t>
   </si>
@@ -365,6 +365,9 @@
   </si>
   <si>
     <t>css-pyssel</t>
+  </si>
+  <si>
+    <t>album cover pic sync</t>
   </si>
 </sst>
 </file>
@@ -781,7 +784,7 @@
   <dimension ref="B1:X17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1177,6 +1180,10 @@
       <c r="T10" t="s">
         <v>101</v>
       </c>
+      <c r="U10" s="5"/>
+      <c r="V10" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B11" s="14"/>

--- a/ProjectFiles/PlanGroup2.xlsx
+++ b/ProjectFiles/PlanGroup2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Module14\Emotus\ProjectFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C07C11-4387-40A8-A729-329E90412076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A930D7DE-2F99-46EA-A947-27AD363AFFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="110">
   <si>
     <t>Day 1</t>
   </si>
@@ -784,7 +784,7 @@
   <dimension ref="B1:X17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -966,6 +966,10 @@
       <c r="V4" t="s">
         <v>86</v>
       </c>
+      <c r="W4" s="5"/>
+      <c r="X4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B5" s="14"/>
@@ -1046,7 +1050,7 @@
       <c r="T6" t="s">
         <v>53</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="U6" s="8" t="s">
         <v>96</v>
       </c>
       <c r="V6" t="s">
@@ -1086,7 +1090,7 @@
       <c r="T7" t="s">
         <v>87</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="U7" s="1" t="s">
         <v>97</v>
       </c>
       <c r="V7" t="s">
@@ -1118,7 +1122,7 @@
       <c r="T8" t="s">
         <v>102</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="U8" s="1" t="s">
         <v>107</v>
       </c>
       <c r="V8" t="s">
@@ -1180,7 +1184,7 @@
       <c r="T10" t="s">
         <v>101</v>
       </c>
-      <c r="U10" s="5"/>
+      <c r="U10" s="1"/>
       <c r="V10" t="s">
         <v>109</v>
       </c>

--- a/ProjectFiles/PlanGroup2.xlsx
+++ b/ProjectFiles/PlanGroup2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Module14\Emotus\ProjectFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\JavaProjects\Emotus\ProjectFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A930D7DE-2F99-46EA-A947-27AD363AFFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD416587-439B-44FA-8317-438B316E0F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -783,36 +783,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView topLeftCell="B1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="4" max="4" width="3.6328125" customWidth="1"/>
-    <col min="5" max="5" width="2.81640625" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.81640625" customWidth="1"/>
-    <col min="8" max="8" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.81640625" customWidth="1"/>
-    <col min="10" max="10" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.81640625" customWidth="1"/>
-    <col min="12" max="12" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.81640625" customWidth="1"/>
-    <col min="14" max="14" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.81640625" customWidth="1"/>
-    <col min="16" max="16" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.81640625" customWidth="1"/>
-    <col min="18" max="18" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.81640625" customWidth="1"/>
-    <col min="20" max="20" width="37.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.81640625" customWidth="1"/>
-    <col min="22" max="22" width="17" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.81640625" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.85546875" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.85546875" customWidth="1"/>
+    <col min="16" max="16" width="26" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.85546875" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" customWidth="1"/>
+    <col min="20" max="20" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.85546875" customWidth="1"/>
+    <col min="22" max="22" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.85546875" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
       <c r="F1" s="7">
         <v>44949</v>
       </c>
@@ -844,7 +845,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
         <v>35</v>
       </c>
@@ -890,7 +891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="E3" s="1"/>
@@ -925,7 +926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="E4" s="1"/>
@@ -971,7 +972,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="E5" s="1"/>
@@ -1015,7 +1016,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="E6" s="1"/>
@@ -1057,7 +1058,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="E7" s="1"/>
@@ -1097,7 +1098,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="E8" s="1"/>
@@ -1129,7 +1130,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="E9" s="1"/>
@@ -1161,7 +1162,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="E10" s="5"/>
@@ -1189,7 +1190,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="E11" s="5"/>
@@ -1211,7 +1212,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="E12" s="1"/>
@@ -1229,7 +1230,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="E13" s="1"/>
@@ -1243,7 +1244,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E14" s="1"/>
       <c r="F14" t="s">
         <v>19</v>
@@ -1255,7 +1256,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E15" s="5"/>
       <c r="F15" t="s">
         <v>20</v>
@@ -1267,7 +1268,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="S16" s="1" t="s">
         <v>95</v>
       </c>
@@ -1275,7 +1276,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S17" s="5"/>
       <c r="T17" t="s">
         <v>103</v>
@@ -1299,15 +1300,15 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="2.90625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="33.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.90625" customWidth="1"/>
-    <col min="6" max="6" width="2.90625" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="11"/>
       <c r="C2" s="10" t="s">
         <v>37</v>
@@ -1321,7 +1322,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>40</v>
       </c>
@@ -1329,7 +1330,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>41</v>
       </c>
@@ -1337,7 +1338,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>40</v>
       </c>
@@ -1345,7 +1346,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>41</v>
       </c>
@@ -1353,7 +1354,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>40</v>
       </c>
@@ -1361,7 +1362,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>41</v>
       </c>
@@ -1369,7 +1370,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>40</v>
       </c>
@@ -1377,7 +1378,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>40</v>
       </c>
@@ -1385,7 +1386,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>40</v>
       </c>
@@ -1393,7 +1394,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>40</v>
       </c>
@@ -1401,7 +1402,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>41</v>
       </c>
@@ -1419,16 +1420,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00128B5-F611-48C7-9883-4F46CE353D3D}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -1436,7 +1437,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -1447,7 +1448,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -1458,7 +1459,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1469,7 +1470,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>67</v>
       </c>
@@ -1477,7 +1478,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>71</v>
       </c>
@@ -1485,32 +1486,32 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -1518,7 +1519,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
